--- a/XuMiuDuTing/RabiConfig/xlsx/Camera.xlsx
+++ b/XuMiuDuTing/RabiConfig/xlsx/Camera.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yufulao\Desktop\YuFramework\RabiConfig\xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\XuMiuDuTing\XuMiuDuTing\RabiConfig\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B28AA1F-A003-4210-A0CA-189C0C3DF8B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00BB18EC-6D56-4C7F-B729-21CCEB81B900}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="list" sheetId="2" r:id="rId1"/>
     <sheet name="Camera" sheetId="1" r:id="rId2"/>
+    <sheet name="ObjCameraStateType" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="29">
   <si>
     <t>Camera</t>
   </si>
@@ -65,6 +66,78 @@
   </si>
   <si>
     <t>rotation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ObjCameraStateType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Annotate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DefName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注释</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>枚举名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IdleCommand</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IdleAnimation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Enemy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Character</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入指令阶段的idle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>执行指令阶段的idle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>聚焦敌人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>聚焦角色</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-3.57,1.53,-9.6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.72,1.53,-9.6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.42,1.53,-9.6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-0.08,1.53,-9.6</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -116,9 +189,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -394,10 +468,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D27" sqref="D27:D28"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -405,6 +479,11 @@
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -416,10 +495,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -477,9 +556,138 @@
         <v>9</v>
       </c>
     </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4">
+        <v>82.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5">
+        <v>82.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7">
+        <v>60</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9D1347D-4F5C-48FD-A682-DA14B4DE5D5C}">
+  <dimension ref="A1:C7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K18" sqref="K18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="16.125" customWidth="1"/>
+    <col min="2" max="2" width="18" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/XuMiuDuTing/RabiConfig/xlsx/Camera.xlsx
+++ b/XuMiuDuTing/RabiConfig/xlsx/Camera.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\XuMiuDuTing\XuMiuDuTing\RabiConfig\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00BB18EC-6D56-4C7F-B729-21CCEB81B900}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE19C073-BFEC-486D-95A4-82B4049BDA78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="33">
   <si>
     <t>Camera</t>
   </si>
@@ -125,19 +125,35 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>-3.57,1.53,-9.6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3.72,1.53,-9.6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.42,1.53,-9.6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-0.08,1.53,-9.6</t>
+    <t>1.38,1.5,0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,1.5,0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-4.2,1.5,1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.2,1.5,1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,4.3,0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,-4.3,0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,0,0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,-3,0</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -498,7 +514,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -561,10 +577,13 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="D4">
-        <v>82.5</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -572,10 +591,13 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>31</v>
       </c>
       <c r="D5">
-        <v>82.5</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -583,10 +605,13 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="D6">
-        <v>60</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -594,10 +619,13 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>30</v>
       </c>
       <c r="D7">
-        <v>60</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
